--- a/data/reference/price_reference.xlsx
+++ b/data/reference/price_reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blake/Desktop/Coding/Stock/data/reference/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blake/Desktop/Work/Coding/Stock/data/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C63A199-7598-094A-B83C-141028D1817A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAED982B-009F-C344-BE33-E9B4A62C717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27040" yWindow="4100" windowWidth="27040" windowHeight="16860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="보조금" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="281">
   <si>
     <t>company</t>
   </si>
@@ -361,26 +361,6 @@
   </si>
   <si>
     <t>BYD ATTO 3</t>
-  </si>
-  <si>
-    <t>싼타페 하이브리드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>익스클루시브</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프레스티지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프레스티지 플러스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캘리그래피</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>year</t>
@@ -395,18 +375,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2WD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>company</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>현대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -439,147 +411,581 @@
     <t>GT-line 롱레인지</t>
   </si>
   <si>
-    <t>기아</t>
+    <t>라이트 스탠다드</t>
+  </si>
+  <si>
+    <t>라이트 롱레인지</t>
+  </si>
+  <si>
+    <t>하이브리드 1.6 노블레스</t>
+  </si>
+  <si>
+    <t>하이브리드 1.6 그래비티 7인승</t>
+  </si>
+  <si>
+    <t>하이브리드 1.6 그래비티 9인승</t>
+  </si>
+  <si>
+    <t>하이브리드 1.6 노블레스 7인승</t>
+  </si>
+  <si>
+    <t>하이브리드 1.6 노블레스 9인승</t>
+  </si>
+  <si>
+    <t>하이브리드 1.6 프레스티지</t>
+  </si>
+  <si>
+    <t>하이브리드 1.6 시그니처</t>
+  </si>
+  <si>
+    <t>하이브리드 1.6 X-Line</t>
+  </si>
+  <si>
+    <t>가솔린 3.5 프레스티지 9인승</t>
+  </si>
+  <si>
+    <t>가솔린 3.5 노블레스 9인승</t>
+  </si>
+  <si>
+    <t>가솔린 3.5 노블레스 7인승</t>
+  </si>
+  <si>
+    <t>가솔린 3.5 아웃도어 7인승</t>
+  </si>
+  <si>
+    <t>가솔린 3.5 시그니처 9인승</t>
+  </si>
+  <si>
+    <t>가솔린 3.5 시그니처 7인승</t>
+  </si>
+  <si>
+    <t>가솔린 3.5 그래비티 9인승</t>
+  </si>
+  <si>
+    <t>가솔린 3.5 그래비티 7인승</t>
+  </si>
+  <si>
+    <t>디젤 2.2 프레스티지 9인승</t>
+  </si>
+  <si>
+    <t>디젤 2.2 노블레스 9인승</t>
+  </si>
+  <si>
+    <t>디젤 2.2 노블레스 7인승</t>
+  </si>
+  <si>
+    <t>디젤 2.2 아웃도어 7인승</t>
+  </si>
+  <si>
+    <t>디젤 2.2 시그니처 9인승</t>
+  </si>
+  <si>
+    <t>디젤 2.2 시그니처 7인승</t>
+  </si>
+  <si>
+    <t>디젤 2.2 그래비티 9인승</t>
+  </si>
+  <si>
+    <t>디젤 2.2 그래비티 7인승</t>
+  </si>
+  <si>
+    <t>하이브리드 1.6 프레스티지 9인승</t>
+  </si>
+  <si>
+    <t>하이브리드 1.6 아웃도어 7인승</t>
+  </si>
+  <si>
+    <t>하이브리드 1.6 시그니처 9인승</t>
+  </si>
+  <si>
+    <t>하이브리드 1.6 시그니처 7인승</t>
+  </si>
+  <si>
+    <t>현대_싼타페 하이브리드_익스클루시브_2025</t>
+  </si>
+  <si>
+    <t>싼타페 하이브리드</t>
+  </si>
+  <si>
+    <t>익스클루시브</t>
+  </si>
+  <si>
+    <t>현대_싼타페 하이브리드_프레스티지_2025</t>
+  </si>
+  <si>
+    <t>프레스티지</t>
+  </si>
+  <si>
+    <t>현대_싼타페 하이브리드_프레스티지 플러스_2025</t>
+  </si>
+  <si>
+    <t>프레스티지 플러스</t>
+  </si>
+  <si>
+    <t>현대_싼타페 하이브리드_캘리그래피_2025</t>
+  </si>
+  <si>
+    <t>캘리그래피</t>
+  </si>
+  <si>
+    <t>기아_EV4_에어 스탠다드_2025</t>
+  </si>
+  <si>
+    <t>EV4</t>
+  </si>
+  <si>
+    <t>기아_EV4_에어 롱레인지_2025</t>
+  </si>
+  <si>
+    <t>기아_EV4_어스 스탠다드_2025</t>
+  </si>
+  <si>
+    <t>기아_EV4_어스 롱레인지_2025</t>
+  </si>
+  <si>
+    <t>기아_EV4_GT-line 스탠다드_2025</t>
+  </si>
+  <si>
+    <t>기아_EV4_GT-line 롱레인지_2025</t>
+  </si>
+  <si>
+    <t>기아_EV3_에어 스탠다드_2025</t>
+  </si>
+  <si>
+    <t>EV3</t>
+  </si>
+  <si>
+    <t>기아_EV3_에어 롱레인지_2025</t>
+  </si>
+  <si>
+    <t>기아_EV3_어스 스탠다드_2025</t>
+  </si>
+  <si>
+    <t>기아_EV3_어스 롱레인지_2025</t>
+  </si>
+  <si>
+    <t>기아_EV3_GT-line 스탠다드_2025</t>
+  </si>
+  <si>
+    <t>기아_EV3_GT-line 롱레인지_2025</t>
+  </si>
+  <si>
+    <t>기아_EV6_라이트 스탠다드_2026</t>
+  </si>
+  <si>
+    <t>기아_EV6_라이트 롱레인지_2026</t>
+  </si>
+  <si>
+    <t>기아_EV6_에어 스탠다드_2026</t>
+  </si>
+  <si>
+    <t>기아_EV6_에어 롱레인지_2026</t>
+  </si>
+  <si>
+    <t>기아_EV6_어스 스탠다드_2026</t>
+  </si>
+  <si>
+    <t>기아_EV6_어스 롱레인지_2026</t>
+  </si>
+  <si>
+    <t>기아_EV6_GT-line 롱레인지_2026</t>
+  </si>
+  <si>
+    <t>기아_EV6_라이트 스탠다드_2025</t>
+  </si>
+  <si>
+    <t>기아_EV6_라이트 롱레인지_2025</t>
+  </si>
+  <si>
+    <t>기아_EV6_에어 스탠다드_2025</t>
+  </si>
+  <si>
+    <t>기아_EV6_에어 롱레인지_2025</t>
+  </si>
+  <si>
+    <t>기아_EV6_어스 스탠다드_2025</t>
+  </si>
+  <si>
+    <t>기아_EV6_어스 롱레인지_2025</t>
+  </si>
+  <si>
+    <t>기아_EV6_GT-line 롱레인지_2025</t>
+  </si>
+  <si>
+    <t>기아_EV3_에어 스탠다드_2026</t>
+  </si>
+  <si>
+    <t>기아_EV3_에어 롱레인지_2026</t>
+  </si>
+  <si>
+    <t>기아_EV3_어스 스탠다드_2026</t>
+  </si>
+  <si>
+    <t>기아_EV3_어스 롱레인지_2026</t>
+  </si>
+  <si>
+    <t>기아_EV3_GT-line 스탠다드_2026</t>
+  </si>
+  <si>
+    <t>기아_EV3_GT-line 롱레인지_2026</t>
+  </si>
+  <si>
+    <t>기아_쏘렌토_가솔린 터보 2.5 프레스티지_2026</t>
+  </si>
+  <si>
+    <t>쏘렌토</t>
+  </si>
+  <si>
+    <t>가솔린 터보 2.5 프레스티지</t>
+  </si>
+  <si>
+    <t>기아_쏘렌토_가솔린 터보 2.5 노블레스_2026</t>
+  </si>
+  <si>
+    <t>가솔린 터보 2.5 노블레스</t>
+  </si>
+  <si>
+    <t>기아_쏘렌토_가솔린 터보 2.5 시그니처_2026</t>
+  </si>
+  <si>
+    <t>가솔린 터보 2.5 시그니처</t>
+  </si>
+  <si>
+    <t>기아_쏘렌토_가솔린 터보 2.5 X-Line_2026</t>
+  </si>
+  <si>
+    <t>가솔린 터보 2.5 X-Line</t>
+  </si>
+  <si>
+    <t>기아_쏘렌토_하이브리드 1.6 프레스티지_2026</t>
+  </si>
+  <si>
+    <t>기아_쏘렌토_하이브리드 1.6 노블레스_2026</t>
+  </si>
+  <si>
+    <t>기아_쏘렌토_하이브리드 1.6 시그니처_2026</t>
+  </si>
+  <si>
+    <t>기아_쏘렌토_하이브리드 1.6 X-Line_2026</t>
+  </si>
+  <si>
+    <t>기아_카니발_가솔린 3.5 프레스티지 9인승_2025</t>
+  </si>
+  <si>
+    <t>카니발</t>
+  </si>
+  <si>
+    <t>기아_카니발_가솔린 3.5 노블레스 9인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_가솔린 3.5 노블레스 7인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_가솔린 3.5 아웃도어 7인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_가솔린 3.5 시그니처 9인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_가솔린 3.5 시그니처 7인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_가솔린 3.5 그래비티 9인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_가솔린 3.5 그래비티 7인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_디젤 2.2 프레스티지 9인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_디젤 2.2 노블레스 9인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_디젤 2.2 노블레스 7인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_디젤 2.2 아웃도어 7인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_디젤 2.2 시그니처 9인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_디젤 2.2 시그니처 7인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_디젤 2.2 그래비티 9인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_디젤 2.2 그래비티 7인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_하이브리드 1.6 프레스티지 9인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_하이브리드 1.6 노블레스 9인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_하이브리드 1.6 노블레스 7인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_하이브리드 1.6 아웃도어 7인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_하이브리드 1.6 시그니처 9인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_하이브리드 1.6 시그니처 7인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_하이브리드 1.6 그래비티 9인승_2025</t>
+  </si>
+  <si>
+    <t>기아_카니발_하이브리드 1.6 그래비티 7인승_2025</t>
+  </si>
+  <si>
+    <t>현대_싼타페 하이브리드_익스클루시브_2026</t>
+  </si>
+  <si>
+    <t>현대_싼타페 하이브리드_프레스티지_2026</t>
+  </si>
+  <si>
+    <t>현대_싼타페 하이브리드_H-Pick_2026</t>
+  </si>
+  <si>
+    <t>H-Pick</t>
+  </si>
+  <si>
+    <t>현대_싼타페 하이브리드_블랙 익스테리어_2026</t>
+  </si>
+  <si>
+    <t>블랙 익스테리어</t>
+  </si>
+  <si>
+    <t>현대_싼타페 하이브리드_캘리그래피_2026</t>
+  </si>
+  <si>
+    <t>현대_싼타페 하이브리드_블랙 잉크_2026</t>
+  </si>
+  <si>
+    <t>블랙 잉크</t>
+  </si>
+  <si>
+    <t>현대_아반떼_가솔린 모던_2026</t>
+  </si>
+  <si>
+    <t>아반떼</t>
+  </si>
+  <si>
+    <t>가솔린 모던</t>
+  </si>
+  <si>
+    <t>현대_아반떼_가솔린 인스퍼레이션_2026</t>
+  </si>
+  <si>
+    <t>가솔린 인스퍼레이션</t>
+  </si>
+  <si>
+    <t>현대_아반떼_가솔린 N 라인_2026</t>
+  </si>
+  <si>
+    <t>가솔린 N 라인</t>
+  </si>
+  <si>
+    <t>현대_아반떼_하이브리드 모던_2026</t>
+  </si>
+  <si>
+    <t>하이브리드 모던</t>
+  </si>
+  <si>
+    <t>현대_아반떼_하이브리드 스마트_2026</t>
+  </si>
+  <si>
+    <t>하이브리드 스마트</t>
+  </si>
+  <si>
+    <t>현대_아반떼_하이브리드 모던 라이트_2026</t>
+  </si>
+  <si>
+    <t>하이브리드 모던 라이트</t>
+  </si>
+  <si>
+    <t>현대_아반떼_하이브리드 인스퍼레이션_2026</t>
+  </si>
+  <si>
+    <t>하이브리드 인스퍼레이션</t>
+  </si>
+  <si>
+    <t>현대_아반떼_하이브리드 N 라인_2026</t>
+  </si>
+  <si>
+    <t>하이브리드 N 라인</t>
+  </si>
+  <si>
+    <t>2WD</t>
+  </si>
+  <si>
+    <t>부정확</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가솔린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스마트</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EV4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EV3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EV6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이트 스탠다드</t>
-  </si>
-  <si>
-    <t>라이트 롱레인지</t>
-  </si>
-  <si>
-    <t>부정확</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이브리드 1.6 노블레스</t>
-  </si>
-  <si>
-    <t>하이브리드 1.6 그래비티 7인승</t>
-  </si>
-  <si>
-    <t>하이브리드 1.6 그래비티 9인승</t>
-  </si>
-  <si>
-    <t>하이브리드 1.6 노블레스 7인승</t>
-  </si>
-  <si>
-    <t>하이브리드 1.6 노블레스 9인승</t>
-  </si>
-  <si>
-    <t>가솔린 터보 2.5 프레스티지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가솔린 터보 2.5 노블레스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가솔린 터보 2.5 시그니처</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가솔린 터보 2.5 X-Line</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이브리드 1.6 프레스티지</t>
-  </si>
-  <si>
-    <t>하이브리드 1.6 시그니처</t>
-  </si>
-  <si>
-    <t>하이브리드 1.6 X-Line</t>
-  </si>
-  <si>
-    <t>쏘렌토</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카니발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가솔린 3.5 프레스티지 9인승</t>
-  </si>
-  <si>
-    <t>가솔린 3.5 노블레스 9인승</t>
-  </si>
-  <si>
-    <t>가솔린 3.5 노블레스 7인승</t>
-  </si>
-  <si>
-    <t>가솔린 3.5 아웃도어 7인승</t>
-  </si>
-  <si>
-    <t>가솔린 3.5 시그니처 9인승</t>
-  </si>
-  <si>
-    <t>가솔린 3.5 시그니처 7인승</t>
-  </si>
-  <si>
-    <t>가솔린 3.5 그래비티 9인승</t>
-  </si>
-  <si>
-    <t>가솔린 3.5 그래비티 7인승</t>
-  </si>
-  <si>
-    <t>디젤 2.2 프레스티지 9인승</t>
-  </si>
-  <si>
-    <t>디젤 2.2 노블레스 9인승</t>
-  </si>
-  <si>
-    <t>디젤 2.2 노블레스 7인승</t>
-  </si>
-  <si>
-    <t>디젤 2.2 아웃도어 7인승</t>
-  </si>
-  <si>
-    <t>디젤 2.2 시그니처 9인승</t>
-  </si>
-  <si>
-    <t>디젤 2.2 시그니처 7인승</t>
-  </si>
-  <si>
-    <t>디젤 2.2 그래비티 9인승</t>
-  </si>
-  <si>
-    <t>디젤 2.2 그래비티 7인승</t>
-  </si>
-  <si>
-    <t>하이브리드 1.6 프레스티지 9인승</t>
-  </si>
-  <si>
-    <t>하이브리드 1.6 아웃도어 7인승</t>
-  </si>
-  <si>
-    <t>하이브리드 1.6 시그니처 9인승</t>
-  </si>
-  <si>
-    <t>하이브리드 1.6 시그니처 7인승</t>
+    <r>
+      <t>현대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아반떼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가솔린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스마트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_2026</t>
+    </r>
+  </si>
+  <si>
+    <t>현대_디 올 뉴 팰리세이드_가솔린 익스클루시브_2025</t>
+  </si>
+  <si>
+    <t>디 올 뉴 팰리세이드</t>
+  </si>
+  <si>
+    <t>가솔린 익스클루시브</t>
+  </si>
+  <si>
+    <t>현대_디 올 뉴 팰리세이드_가솔린 프레스티지_2025</t>
+  </si>
+  <si>
+    <t>가솔린 프레스티지</t>
+  </si>
+  <si>
+    <t>현대_디 올 뉴 팰리세이드_가솔린 캘리그래피_2025</t>
+  </si>
+  <si>
+    <t>가솔린 캘리그래피</t>
+  </si>
+  <si>
+    <t>현대_디 올 뉴 팰리세이드_하이브리드 익스클루시브_2025</t>
+  </si>
+  <si>
+    <t>하이브리드 익스클루시브</t>
+  </si>
+  <si>
+    <t>현대_디 올 뉴 팰리세이드_하이브리드 프레스티지_2025</t>
+  </si>
+  <si>
+    <t>하이브리드 프레스티지</t>
+  </si>
+  <si>
+    <t>현대_디 올 뉴 팰리세이드_하이브리드 캘리그래피_2025</t>
+  </si>
+  <si>
+    <t>하이브리드 캘리그래피</t>
+  </si>
+  <si>
+    <t>제네시스_GV70_가솔린 터보 2.5_2025</t>
+  </si>
+  <si>
+    <t>제네시스</t>
+  </si>
+  <si>
+    <t>GV70</t>
+  </si>
+  <si>
+    <t>가솔린 터보 2.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -609,43 +1015,8 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.5"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -657,6 +1028,32 @@
       <color theme="1"/>
       <name val="Malgun Gothic"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="나눔명조"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -680,24 +1077,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1015,16 +1410,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2366,10 +2761,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91:G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2382,1799 +2777,2228 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F2" s="7">
+        <v>40310000</v>
+      </c>
+      <c r="G2" s="7">
+        <v>38700000</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F3" s="7">
+        <v>43480000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>41820000</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F4" s="7">
+        <v>44900000</v>
+      </c>
+      <c r="G4" s="7">
+        <v>43220000</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F5" s="7">
+        <v>48820000</v>
+      </c>
+      <c r="G5" s="7">
+        <v>47080000</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F6" s="7">
+        <v>42570000</v>
+      </c>
+      <c r="G6" s="7">
+        <v>40420000</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F7" s="7">
+        <v>47000000</v>
+      </c>
+      <c r="G7" s="7">
+        <v>44620000</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F8" s="7">
+        <v>47410000</v>
+      </c>
+      <c r="G8" s="7">
+        <v>45010000</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F9" s="7">
+        <v>51830000</v>
+      </c>
+      <c r="G9" s="7">
+        <v>49210000</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E10" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F10" s="7">
+        <v>48570000</v>
+      </c>
+      <c r="G10" s="7">
+        <v>46110000</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E11" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F11" s="7">
+        <v>52990000</v>
+      </c>
+      <c r="G11" s="7">
+        <v>50310000</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F12" s="7">
+        <v>42080000</v>
+      </c>
+      <c r="G12" s="7">
+        <v>39950000</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="str">
-        <f>B2&amp;"_"&amp;C2&amp;"_"&amp;D2&amp;"_"&amp;E2</f>
-        <v>현대_싼타페 하이브리드_익스클루시브_2025</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E13" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F13" s="7">
+        <v>46500000</v>
+      </c>
+      <c r="G13" s="7">
+        <v>44150000</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F14" s="7">
+        <v>46240000</v>
+      </c>
+      <c r="G14" s="7">
+        <v>43900000</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F15" s="7">
+        <v>50660000</v>
+      </c>
+      <c r="G15" s="7">
+        <v>48100000</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F16" s="7">
+        <v>47140000</v>
+      </c>
+      <c r="G16" s="7">
+        <v>44750000</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F17" s="7">
+        <v>51560000</v>
+      </c>
+      <c r="G17" s="7">
+        <v>48950000</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F18" s="7">
+        <v>49080000</v>
+      </c>
+      <c r="G18" s="7">
+        <v>46600000</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F19" s="7">
+        <v>53300000</v>
+      </c>
+      <c r="G19" s="7">
+        <v>50600000</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2025</v>
-      </c>
-      <c r="F2" s="4">
-        <v>40310000</v>
-      </c>
-      <c r="G2" s="4">
-        <v>38700000</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="E20" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F20" s="7">
+        <v>54130000</v>
+      </c>
+      <c r="G20" s="7">
+        <v>51400000</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A31" si="0">B3&amp;"_"&amp;C3&amp;"_"&amp;D3&amp;"_"&amp;E3</f>
-        <v>현대_싼타페 하이브리드_프레스티지_2025</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F21" s="7">
+        <v>58340000</v>
+      </c>
+      <c r="G21" s="7">
+        <v>55400000</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F22" s="7">
+        <v>58350000</v>
+      </c>
+      <c r="G22" s="7">
+        <v>55400000</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F23" s="7">
+        <v>62570000</v>
+      </c>
+      <c r="G23" s="7">
+        <v>59400000</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F24" s="7">
+        <v>63200000</v>
+      </c>
+      <c r="G24" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F25" s="7">
+        <v>49080000</v>
+      </c>
+      <c r="G25" s="7">
+        <v>46600000</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F26" s="7">
+        <v>53300000</v>
+      </c>
+      <c r="G26" s="7">
+        <v>50600000</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2025</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43480000</v>
-      </c>
-      <c r="G3" s="4">
-        <v>41820000</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="E27" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F27" s="7">
+        <v>54030000</v>
+      </c>
+      <c r="G27" s="7">
+        <v>51300000</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>현대_싼타페 하이브리드_프레스티지 플러스_2025</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D28" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F28" s="7">
+        <v>58240000</v>
+      </c>
+      <c r="G28" s="7">
+        <v>55300000</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F29" s="7">
+        <v>58300000</v>
+      </c>
+      <c r="G29" s="7">
+        <v>55350000</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F30" s="7">
+        <v>62520000</v>
+      </c>
+      <c r="G30" s="7">
+        <v>59350000</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F31" s="7">
+        <v>63150000</v>
+      </c>
+      <c r="G31" s="7">
+        <v>59950000</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2025</v>
-      </c>
-      <c r="F4" s="4">
-        <v>44900000</v>
-      </c>
-      <c r="G4" s="4">
-        <v>43220000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>현대_싼타페 하이브리드_캘리그래피_2025</v>
-      </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2025</v>
-      </c>
-      <c r="F5" s="4">
-        <v>48820000</v>
-      </c>
-      <c r="G5" s="4">
-        <v>47080000</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV4_에어 스탠다드_2025</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E32" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F32" s="7">
+        <v>42080000</v>
+      </c>
+      <c r="G32" s="7">
+        <v>39950000</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F33" s="7">
+        <v>46500000</v>
+      </c>
+      <c r="G33" s="7">
+        <v>44150000</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F34" s="7">
+        <v>46240000</v>
+      </c>
+      <c r="G34" s="7">
+        <v>43900000</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F35" s="7">
+        <v>50660000</v>
+      </c>
+      <c r="G35" s="7">
+        <v>48100000</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F36" s="7">
+        <v>47140000</v>
+      </c>
+      <c r="G36" s="7">
+        <v>44750000</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F37" s="7">
+        <v>51560000</v>
+      </c>
+      <c r="G37" s="7">
+        <v>48950000</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F38" s="7">
+        <v>36350000</v>
+      </c>
+      <c r="G38" s="7">
+        <v>35800000</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F39" s="7">
+        <v>39510000</v>
+      </c>
+      <c r="G39" s="7">
+        <v>38910000</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F40" s="7">
+        <v>42320000</v>
+      </c>
+      <c r="G40" s="7">
+        <v>41680000</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F41" s="7">
+        <v>43260000</v>
+      </c>
+      <c r="G41" s="7">
+        <v>42600000</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E42" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F42" s="7">
+        <v>40580000</v>
+      </c>
+      <c r="G42" s="7">
+        <v>38960000</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F43" s="7">
+        <v>43840000</v>
+      </c>
+      <c r="G43" s="7">
+        <v>42170000</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E44" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F44" s="7">
+        <v>46370000</v>
+      </c>
+      <c r="G44" s="7">
+        <v>44670000</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F45" s="7">
+        <v>47310000</v>
+      </c>
+      <c r="G45" s="7">
+        <v>45590000</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F46" s="7">
+        <v>35510000</v>
+      </c>
+      <c r="G46" s="7">
+        <v>35510000</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F47" s="7">
+        <v>39910000</v>
+      </c>
+      <c r="G47" s="7">
+        <v>39910000</v>
+      </c>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F48" s="7">
+        <v>42500000</v>
+      </c>
+      <c r="G48" s="7">
+        <v>41850000</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F49" s="7">
+        <v>41510000</v>
+      </c>
+      <c r="G49" s="7">
+        <v>40880000</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F50" s="7">
+        <v>43560000</v>
+      </c>
+      <c r="G50" s="7">
+        <v>43560000</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F51" s="7">
+        <v>46360000</v>
+      </c>
+      <c r="G51" s="7">
+        <v>45660000</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F52" s="7">
+        <v>44590000</v>
+      </c>
+      <c r="G52" s="7">
+        <v>44590000</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F53" s="7">
+        <v>47180000</v>
+      </c>
+      <c r="G53" s="7">
+        <v>46460000</v>
+      </c>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F54" s="7">
+        <v>37460000</v>
+      </c>
+      <c r="G54" s="7">
+        <v>37460000</v>
+      </c>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F55" s="7">
+        <v>41860000</v>
+      </c>
+      <c r="G55" s="7">
+        <v>41860000</v>
+      </c>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F56" s="7">
+        <v>44430000</v>
+      </c>
+      <c r="G56" s="7">
+        <v>43780000</v>
+      </c>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F57" s="7">
+        <v>43440000</v>
+      </c>
+      <c r="G57" s="7">
+        <v>42810000</v>
+      </c>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F58" s="7">
+        <v>45510000</v>
+      </c>
+      <c r="G58" s="7">
+        <v>45510000</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F59" s="7">
+        <v>48290000</v>
+      </c>
+      <c r="G59" s="7">
+        <v>47590000</v>
+      </c>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F60" s="7">
+        <v>46540000</v>
+      </c>
+      <c r="G60" s="7">
+        <v>46540000</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F61" s="7">
+        <v>49110000</v>
+      </c>
+      <c r="G61" s="7">
+        <v>48390000</v>
+      </c>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F62" s="7">
+        <v>40060000</v>
+      </c>
+      <c r="G62" s="7">
+        <v>40060000</v>
+      </c>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F63" s="7">
+        <v>44460000</v>
+      </c>
+      <c r="G63" s="7">
+        <v>44460000</v>
+      </c>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F64" s="7">
+        <v>47000000</v>
+      </c>
+      <c r="G64" s="7">
+        <v>46350000</v>
+      </c>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F65" s="7">
+        <v>46010000</v>
+      </c>
+      <c r="G65" s="7">
+        <v>45380000</v>
+      </c>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F66" s="7">
+        <v>48110000</v>
+      </c>
+      <c r="G66" s="7">
+        <v>48110000</v>
+      </c>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F67" s="7">
+        <v>50860000</v>
+      </c>
+      <c r="G67" s="7">
+        <v>50160000</v>
+      </c>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F68" s="7">
+        <v>49140000</v>
+      </c>
+      <c r="G68" s="7">
+        <v>49140000</v>
+      </c>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E6">
-        <v>2025</v>
-      </c>
-      <c r="F6" s="8">
-        <v>42570000</v>
-      </c>
-      <c r="G6" s="9">
-        <v>40420000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV4_에어 롱레인지_2025</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7">
-        <v>2025</v>
-      </c>
-      <c r="F7" s="8">
-        <v>47000000</v>
-      </c>
-      <c r="G7" s="9">
-        <v>44620000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV4_어스 스탠다드_2025</v>
-      </c>
-      <c r="B8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8">
-        <v>2025</v>
-      </c>
-      <c r="F8" s="8">
-        <v>47410000</v>
-      </c>
-      <c r="G8" s="9">
-        <v>45010000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV4_어스 롱레인지_2025</v>
-      </c>
-      <c r="B9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9">
-        <v>2025</v>
-      </c>
-      <c r="F9" s="8">
-        <v>51830000</v>
-      </c>
-      <c r="G9" s="9">
-        <v>49210000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV4_GT-line 스탠다드_2025</v>
-      </c>
-      <c r="B10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10">
-        <v>2025</v>
-      </c>
-      <c r="F10" s="8">
-        <v>48570000</v>
-      </c>
-      <c r="G10" s="9">
-        <v>46110000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV4_GT-line 롱레인지_2025</v>
-      </c>
-      <c r="B11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11">
-        <v>2025</v>
-      </c>
-      <c r="F11" s="8">
-        <v>52990000</v>
-      </c>
-      <c r="G11" s="9">
-        <v>50310000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV3_에어 스탠다드_2025</v>
-      </c>
-      <c r="B12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12">
-        <v>2025</v>
-      </c>
-      <c r="F12" s="8">
-        <v>42080000</v>
-      </c>
-      <c r="G12" s="9">
-        <v>39950000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV3_에어 롱레인지_2025</v>
-      </c>
-      <c r="B13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13">
-        <v>2025</v>
-      </c>
-      <c r="F13" s="8">
-        <v>46500000</v>
-      </c>
-      <c r="G13" s="9">
-        <v>44150000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV3_어스 스탠다드_2025</v>
-      </c>
-      <c r="B14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14">
-        <v>2025</v>
-      </c>
-      <c r="F14" s="8">
-        <v>46240000</v>
-      </c>
-      <c r="G14" s="9">
-        <v>43900000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV3_어스 롱레인지_2025</v>
-      </c>
-      <c r="B15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15">
-        <v>2025</v>
-      </c>
-      <c r="F15" s="8">
-        <v>50660000</v>
-      </c>
-      <c r="G15" s="9">
-        <v>48100000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV3_GT-line 스탠다드_2025</v>
-      </c>
-      <c r="B16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16">
-        <v>2025</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="E69" s="5">
+        <v>2025</v>
+      </c>
+      <c r="F69" s="7">
+        <v>51680000</v>
+      </c>
+      <c r="G69" s="7">
+        <v>50960000</v>
+      </c>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F70" s="7">
+        <v>41270000</v>
+      </c>
+      <c r="G70" s="7">
+        <v>39640000</v>
+      </c>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F71" s="7">
+        <v>44140000</v>
+      </c>
+      <c r="G71" s="7">
+        <v>42470000</v>
+      </c>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E72" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F72" s="7">
+        <v>46790000</v>
+      </c>
+      <c r="G72" s="7">
+        <v>45080000</v>
+      </c>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" s="5">
+        <v>2026</v>
+      </c>
+      <c r="F73" s="7">
         <v>47140000</v>
       </c>
-      <c r="G16" s="9">
-        <v>44750000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV3_GT-line 롱레인지_2025</v>
-      </c>
-      <c r="B17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17">
-        <v>2025</v>
-      </c>
-      <c r="F17" s="8">
-        <v>51560000</v>
-      </c>
-      <c r="G17" s="9">
-        <v>48950000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV6_라이트 스탠다드_2026</v>
-      </c>
-      <c r="B18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18">
+      <c r="G73" s="7">
+        <v>45420000</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E74" s="5">
         <v>2026</v>
       </c>
-      <c r="F18" s="8">
-        <v>49080000</v>
-      </c>
-      <c r="G18" s="9">
-        <v>46600000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV6_라이트 롱레인지_2026</v>
-      </c>
-      <c r="B19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19">
+      <c r="F74" s="7">
+        <v>49830000</v>
+      </c>
+      <c r="G74" s="7">
+        <v>48070000</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E75" s="5">
         <v>2026</v>
       </c>
-      <c r="F19" s="8">
-        <v>53300000</v>
-      </c>
-      <c r="G19" s="9">
-        <v>50600000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV6_에어 스탠다드_2026</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20">
+      <c r="F75" s="7">
+        <v>49830000</v>
+      </c>
+      <c r="G75" s="7">
+        <v>48070000</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E76" s="5">
         <v>2026</v>
       </c>
-      <c r="F20" s="8">
-        <v>54130000</v>
-      </c>
-      <c r="G20" s="9">
-        <v>51400000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV6_에어 롱레인지_2026</v>
-      </c>
-      <c r="B21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21">
+      <c r="F76" s="7">
+        <v>20650000</v>
+      </c>
+      <c r="G76" s="7">
+        <v>20340000</v>
+      </c>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E77" s="5">
         <v>2026</v>
       </c>
-      <c r="F21" s="8">
-        <v>58340000</v>
-      </c>
-      <c r="G21" s="9">
-        <v>55400000</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV6_어스 스탠다드_2026</v>
-      </c>
-      <c r="B22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22">
+      <c r="F77" s="7">
+        <v>23910000</v>
+      </c>
+      <c r="G77" s="7">
+        <v>23550000</v>
+      </c>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E78" s="5">
         <v>2026</v>
       </c>
-      <c r="F22" s="8">
-        <v>58350000</v>
-      </c>
-      <c r="G22" s="9">
-        <v>55400000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV6_어스 롱레인지_2026</v>
-      </c>
-      <c r="B23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23">
+      <c r="F78" s="7">
+        <v>27590000</v>
+      </c>
+      <c r="G78" s="7">
+        <v>27170000</v>
+      </c>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E79" s="5">
         <v>2026</v>
       </c>
-      <c r="F23" s="8">
-        <v>62570000</v>
-      </c>
-      <c r="G23" s="9">
-        <v>59400000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV6_GT-line 롱레인지_2026</v>
-      </c>
-      <c r="B24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24">
+      <c r="F79" s="7">
+        <v>28490000</v>
+      </c>
+      <c r="G79" s="7">
+        <v>28060000</v>
+      </c>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E80" s="5">
         <v>2026</v>
       </c>
-      <c r="F24" s="8">
-        <v>63200000</v>
-      </c>
-      <c r="G24" s="9">
-        <v>60000000</v>
-      </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV6_라이트 스탠다드_2025</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25">
-        <v>2025</v>
-      </c>
-      <c r="F25" s="8">
-        <v>49080000</v>
-      </c>
-      <c r="G25" s="9">
-        <v>46600000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV6_라이트 롱레인지_2025</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26">
-        <v>2025</v>
-      </c>
-      <c r="F26" s="8">
-        <v>53300000</v>
-      </c>
-      <c r="G26" s="9">
-        <v>50600000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV6_에어 스탠다드_2025</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27">
-        <v>2025</v>
-      </c>
-      <c r="F27" s="8">
-        <v>54030000</v>
-      </c>
-      <c r="G27" s="9">
-        <v>51300000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV6_에어 롱레인지_2025</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28">
-        <v>2025</v>
-      </c>
-      <c r="F28" s="8">
-        <v>58240000</v>
-      </c>
-      <c r="G28" s="9">
-        <v>55300000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV6_어스 스탠다드_2025</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29">
-        <v>2025</v>
-      </c>
-      <c r="F29" s="8">
-        <v>58300000</v>
-      </c>
-      <c r="G29" s="9">
-        <v>55350000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV6_어스 롱레인지_2025</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30">
-        <v>2025</v>
-      </c>
-      <c r="F30" s="8">
-        <v>62520000</v>
-      </c>
-      <c r="G30" s="9">
-        <v>59350000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>기아_EV6_GT-line 롱레인지_2025</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31">
-        <v>2025</v>
-      </c>
-      <c r="F31" s="8">
-        <v>63150000</v>
-      </c>
-      <c r="G31" s="9">
-        <v>59950000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="str">
-        <f t="shared" ref="A32:A95" si="1">B32&amp;"_"&amp;C32&amp;"_"&amp;D32&amp;"_"&amp;E32</f>
-        <v>기아_EV3_에어 스탠다드_2026</v>
-      </c>
-      <c r="B32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32">
+      <c r="F80" s="7">
+        <v>26580000</v>
+      </c>
+      <c r="G80" s="7">
+        <v>25230000</v>
+      </c>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81" s="5">
         <v>2026</v>
       </c>
-      <c r="F32" s="8">
-        <v>42080000</v>
-      </c>
-      <c r="G32" s="9">
-        <v>39950000</v>
-      </c>
-      <c r="H32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="str">
-        <f t="shared" si="1"/>
-        <v>기아_EV3_에어 롱레인지_2026</v>
-      </c>
-      <c r="B33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33">
+      <c r="F81" s="7">
+        <v>26850000</v>
+      </c>
+      <c r="G81" s="7">
+        <v>25490000</v>
+      </c>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E82" s="5">
         <v>2026</v>
       </c>
-      <c r="F33" s="8">
-        <v>46500000</v>
-      </c>
-      <c r="G33" s="9">
-        <v>44150000</v>
-      </c>
-      <c r="H33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="str">
-        <f t="shared" si="1"/>
-        <v>기아_EV3_어스 스탠다드_2026</v>
-      </c>
-      <c r="B34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34">
+      <c r="F82" s="7">
+        <v>29340000</v>
+      </c>
+      <c r="G82" s="7">
+        <v>27890000</v>
+      </c>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E83" s="5">
         <v>2026</v>
       </c>
-      <c r="F34" s="8">
-        <v>46240000</v>
-      </c>
-      <c r="G34" s="9">
-        <v>43900000</v>
-      </c>
-      <c r="H34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="str">
-        <f t="shared" si="1"/>
-        <v>기아_EV3_어스 롱레인지_2026</v>
-      </c>
-      <c r="B35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35">
+      <c r="F83" s="7">
+        <v>32650000</v>
+      </c>
+      <c r="G83" s="7">
+        <v>31150000</v>
+      </c>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E84" s="5">
         <v>2026</v>
       </c>
-      <c r="F35" s="8">
-        <v>50660000</v>
-      </c>
-      <c r="G35" s="9">
-        <v>48100000</v>
-      </c>
-      <c r="H35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="str">
-        <f t="shared" si="1"/>
-        <v>기아_EV3_GT-line 스탠다드_2026</v>
-      </c>
-      <c r="B36" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36">
-        <v>2026</v>
-      </c>
-      <c r="F36" s="8">
-        <v>47140000</v>
-      </c>
-      <c r="G36" s="9">
-        <v>44750000</v>
-      </c>
-      <c r="H36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="str">
-        <f t="shared" si="1"/>
-        <v>기아_EV3_GT-line 롱레인지_2026</v>
-      </c>
-      <c r="B37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37">
-        <v>2026</v>
-      </c>
-      <c r="F37" s="8">
-        <v>51560000</v>
-      </c>
-      <c r="G37" s="9">
-        <v>48950000</v>
-      </c>
-      <c r="H37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="str">
-        <f t="shared" si="1"/>
-        <v>기아_쏘렌토_가솔린 터보 2.5 프레스티지_2026</v>
-      </c>
-      <c r="B38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38">
-        <v>2026</v>
-      </c>
-      <c r="F38" s="8">
-        <v>36350000</v>
-      </c>
-      <c r="G38" s="9">
-        <v>35800000</v>
-      </c>
-      <c r="H38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="str">
-        <f t="shared" si="1"/>
-        <v>기아_쏘렌토_가솔린 터보 2.5 노블레스_2026</v>
-      </c>
-      <c r="B39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39">
-        <v>2026</v>
-      </c>
-      <c r="F39" s="8">
-        <v>39510000</v>
-      </c>
-      <c r="G39" s="9">
-        <v>38910000</v>
-      </c>
-      <c r="H39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="str">
-        <f t="shared" si="1"/>
-        <v>기아_쏘렌토_가솔린 터보 2.5 시그니처_2026</v>
-      </c>
-      <c r="B40" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40">
-        <v>2026</v>
-      </c>
-      <c r="F40" s="8">
-        <v>42320000</v>
-      </c>
-      <c r="G40" s="9">
-        <v>41680000</v>
-      </c>
-      <c r="H40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="str">
-        <f t="shared" si="1"/>
-        <v>기아_쏘렌토_가솔린 터보 2.5 X-Line_2026</v>
-      </c>
-      <c r="B41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41">
-        <v>2026</v>
-      </c>
-      <c r="F41" s="8">
-        <v>43260000</v>
-      </c>
-      <c r="G41" s="9">
-        <v>42600000</v>
-      </c>
-      <c r="H41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="str">
-        <f t="shared" si="1"/>
-        <v>기아_쏘렌토_하이브리드 1.6 프레스티지_2026</v>
-      </c>
-      <c r="B42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42">
-        <v>2026</v>
-      </c>
-      <c r="F42" s="8">
-        <v>40580000</v>
-      </c>
-      <c r="G42" s="9">
-        <v>38960000</v>
-      </c>
-      <c r="H42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="str">
-        <f t="shared" si="1"/>
-        <v>기아_쏘렌토_하이브리드 1.6 노블레스_2026</v>
-      </c>
-      <c r="B43" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43">
-        <v>2026</v>
-      </c>
-      <c r="F43" s="8">
-        <v>43840000</v>
-      </c>
-      <c r="G43" s="9">
-        <v>42170000</v>
-      </c>
-      <c r="H43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="str">
-        <f t="shared" si="1"/>
-        <v>기아_쏘렌토_하이브리드 1.6 시그니처_2026</v>
-      </c>
-      <c r="B44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44">
-        <v>2026</v>
-      </c>
-      <c r="F44" s="8">
-        <v>46370000</v>
-      </c>
-      <c r="G44" s="9">
-        <v>44670000</v>
-      </c>
-      <c r="H44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="str">
-        <f t="shared" si="1"/>
-        <v>기아_쏘렌토_하이브리드 1.6 X-Line_2026</v>
-      </c>
-      <c r="B45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45">
-        <v>2026</v>
-      </c>
-      <c r="F45" s="8">
-        <v>47310000</v>
-      </c>
-      <c r="G45" s="9">
-        <v>45590000</v>
-      </c>
-      <c r="H45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="str">
-        <f t="shared" si="1"/>
-        <v>기아_카니발_가솔린 3.5 프레스티지 9인승_2025</v>
-      </c>
-      <c r="B46" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46">
-        <v>2025</v>
-      </c>
-      <c r="F46" s="8">
-        <v>35510000</v>
-      </c>
-      <c r="G46" s="9">
-        <f>F46</f>
-        <v>35510000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="str">
-        <f t="shared" ref="A47:A69" si="2">B47&amp;"_"&amp;C47&amp;"_"&amp;D47&amp;"_"&amp;E47</f>
-        <v>기아_카니발_가솔린 3.5 노블레스 9인승_2025</v>
-      </c>
-      <c r="B47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E47">
-        <v>2025</v>
-      </c>
-      <c r="F47" s="8">
-        <v>39910000</v>
-      </c>
-      <c r="G47" s="9">
-        <f>F47</f>
-        <v>39910000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_가솔린 3.5 노블레스 7인승_2025</v>
-      </c>
-      <c r="B48" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48">
-        <v>2025</v>
-      </c>
-      <c r="F48" s="8">
-        <v>42500000</v>
-      </c>
-      <c r="G48" s="9">
-        <v>41850000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_가솔린 3.5 아웃도어 7인승_2025</v>
-      </c>
-      <c r="B49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49">
-        <v>2025</v>
-      </c>
-      <c r="F49" s="8">
-        <v>41510000</v>
-      </c>
-      <c r="G49" s="9">
-        <v>40880000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_가솔린 3.5 시그니처 9인승_2025</v>
-      </c>
-      <c r="B50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50">
-        <v>2025</v>
-      </c>
-      <c r="F50" s="8">
-        <v>43560000</v>
-      </c>
-      <c r="G50" s="9">
-        <f>F50</f>
-        <v>43560000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_가솔린 3.5 시그니처 7인승_2025</v>
-      </c>
-      <c r="B51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E51">
-        <v>2025</v>
-      </c>
-      <c r="F51" s="8">
-        <v>46360000</v>
-      </c>
-      <c r="G51" s="9">
-        <v>45660000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_가솔린 3.5 그래비티 9인승_2025</v>
-      </c>
-      <c r="B52" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E52">
-        <v>2025</v>
-      </c>
-      <c r="F52" s="8">
-        <v>44590000</v>
-      </c>
-      <c r="G52" s="9">
-        <f>F52</f>
-        <v>44590000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_가솔린 3.5 그래비티 7인승_2025</v>
-      </c>
-      <c r="B53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E53">
-        <v>2025</v>
-      </c>
-      <c r="F53" s="8">
-        <v>47180000</v>
-      </c>
-      <c r="G53" s="9">
-        <v>46460000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_디젤 2.2 프레스티지 9인승_2025</v>
-      </c>
-      <c r="B54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E54">
-        <v>2025</v>
-      </c>
-      <c r="F54" s="8">
-        <v>37460000</v>
-      </c>
-      <c r="G54" s="9">
-        <f t="shared" ref="G54:G55" si="3">F54</f>
-        <v>37460000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_디젤 2.2 노블레스 9인승_2025</v>
-      </c>
-      <c r="B55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E55">
-        <v>2025</v>
-      </c>
-      <c r="F55" s="8">
-        <v>41860000</v>
-      </c>
-      <c r="G55" s="9">
-        <f t="shared" si="3"/>
-        <v>41860000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_디젤 2.2 노블레스 7인승_2025</v>
-      </c>
-      <c r="B56" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E56">
-        <v>2025</v>
-      </c>
-      <c r="F56" s="8">
-        <v>44430000</v>
-      </c>
-      <c r="G56" s="9">
-        <v>43780000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_디젤 2.2 아웃도어 7인승_2025</v>
-      </c>
-      <c r="B57" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E57">
-        <v>2025</v>
-      </c>
-      <c r="F57" s="8">
-        <v>43440000</v>
-      </c>
-      <c r="G57" s="9">
-        <v>42810000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_디젤 2.2 시그니처 9인승_2025</v>
-      </c>
-      <c r="B58" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E58">
-        <v>2025</v>
-      </c>
-      <c r="F58" s="8">
-        <v>45510000</v>
-      </c>
-      <c r="G58" s="9">
-        <f t="shared" ref="G58:G63" si="4">F58</f>
-        <v>45510000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_디젤 2.2 시그니처 7인승_2025</v>
-      </c>
-      <c r="B59" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E59">
-        <v>2025</v>
-      </c>
-      <c r="F59" s="8">
-        <v>48290000</v>
-      </c>
-      <c r="G59" s="9">
-        <v>47590000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_디젤 2.2 그래비티 9인승_2025</v>
-      </c>
-      <c r="B60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E60">
-        <v>2025</v>
-      </c>
-      <c r="F60" s="8">
-        <v>46540000</v>
-      </c>
-      <c r="G60" s="9">
-        <f t="shared" si="4"/>
-        <v>46540000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_디젤 2.2 그래비티 7인승_2025</v>
-      </c>
-      <c r="B61" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E61">
-        <v>2025</v>
-      </c>
-      <c r="F61" s="8">
-        <v>49110000</v>
-      </c>
-      <c r="G61" s="9">
-        <v>48390000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_하이브리드 1.6 프레스티지 9인승_2025</v>
-      </c>
-      <c r="B62" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E62">
-        <v>2025</v>
-      </c>
-      <c r="F62" s="8">
-        <v>40060000</v>
-      </c>
-      <c r="G62" s="9">
-        <f t="shared" si="4"/>
-        <v>40060000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_하이브리드 1.6 노블레스 9인승_2025</v>
-      </c>
-      <c r="B63" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E63">
-        <v>2025</v>
-      </c>
-      <c r="F63" s="8">
-        <v>44460000</v>
-      </c>
-      <c r="G63" s="9">
-        <f t="shared" si="4"/>
-        <v>44460000</v>
-      </c>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_하이브리드 1.6 노블레스 7인승_2025</v>
-      </c>
-      <c r="B64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64">
-        <v>2025</v>
-      </c>
-      <c r="F64" s="8">
-        <v>47000000</v>
-      </c>
-      <c r="G64" s="9">
-        <v>46350000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_하이브리드 1.6 아웃도어 7인승_2025</v>
-      </c>
-      <c r="B65" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E65">
-        <v>2025</v>
-      </c>
-      <c r="F65" s="8">
-        <v>46010000</v>
-      </c>
-      <c r="G65" s="9">
-        <v>45380000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_하이브리드 1.6 시그니처 9인승_2025</v>
-      </c>
-      <c r="B66" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E66">
-        <v>2025</v>
-      </c>
-      <c r="F66" s="8">
-        <v>48110000</v>
-      </c>
-      <c r="G66" s="9">
-        <f t="shared" ref="G66:G68" si="5">F66</f>
-        <v>48110000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_하이브리드 1.6 시그니처 7인승_2025</v>
-      </c>
-      <c r="B67" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E67">
-        <v>2025</v>
-      </c>
-      <c r="F67" s="8">
-        <v>50860000</v>
-      </c>
-      <c r="G67" s="9">
-        <v>50160000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_하이브리드 1.6 그래비티 9인승_2025</v>
-      </c>
-      <c r="B68" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68">
-        <v>2025</v>
-      </c>
-      <c r="F68" s="8">
-        <v>49140000</v>
-      </c>
-      <c r="G68" s="9">
-        <f t="shared" si="5"/>
-        <v>49140000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="str">
-        <f t="shared" si="2"/>
-        <v>기아_카니발_하이브리드 1.6 그래비티 7인승_2025</v>
-      </c>
-      <c r="B69" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E69">
-        <v>2025</v>
-      </c>
-      <c r="F69" s="8">
-        <v>51680000</v>
-      </c>
-      <c r="G69" s="9">
-        <v>50960000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="E73" s="10"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="E74" s="10"/>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="E75" s="10"/>
-      <c r="F75" s="6"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="E76" s="10"/>
-    </row>
-    <row r="81" spans="2:2" ht="27">
-      <c r="B81" s="5"/>
-    </row>
-    <row r="83" spans="2:2" ht="20">
-      <c r="B83" s="11"/>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="6"/>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="6"/>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="6"/>
-    </row>
-    <row r="89" spans="2:2" ht="20">
-      <c r="B89" s="11"/>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="6"/>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="6"/>
-    </row>
-    <row r="94" spans="2:2" ht="20">
-      <c r="B94" s="11"/>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="6"/>
-    </row>
-    <row r="97" spans="2:3">
-      <c r="B97" s="6"/>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="6"/>
-    </row>
-    <row r="99" spans="2:3">
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="B100" s="6"/>
-    </row>
-    <row r="102" spans="2:3">
-      <c r="B102" s="7"/>
-    </row>
-    <row r="103" spans="2:3">
-      <c r="C103" s="7"/>
+      <c r="F84" s="7">
+        <v>33350000</v>
+      </c>
+      <c r="G84" s="7">
+        <v>31840000</v>
+      </c>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E85" s="6">
+        <v>2025</v>
+      </c>
+      <c r="F85" s="7">
+        <v>43830000</v>
+      </c>
+      <c r="G85" s="7">
+        <v>43830000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E86" s="6">
+        <v>2025</v>
+      </c>
+      <c r="F86" s="7">
+        <v>49360000</v>
+      </c>
+      <c r="G86" s="7">
+        <v>49360000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E87" s="6">
+        <v>2025</v>
+      </c>
+      <c r="F87" s="7">
+        <v>55860000</v>
+      </c>
+      <c r="G87" s="7">
+        <v>55860000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E88" s="6">
+        <v>2025</v>
+      </c>
+      <c r="F88" s="7">
+        <v>49820000</v>
+      </c>
+      <c r="G88" s="7">
+        <v>49820000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E89" s="6">
+        <v>2025</v>
+      </c>
+      <c r="F89" s="7">
+        <v>55360000</v>
+      </c>
+      <c r="G89" s="7">
+        <v>55360000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E90" s="6">
+        <v>2025</v>
+      </c>
+      <c r="F90" s="7">
+        <v>61860000</v>
+      </c>
+      <c r="G90" s="7">
+        <v>61860000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E91" s="6">
+        <v>2025</v>
+      </c>
+      <c r="F91" s="10">
+        <v>53800000</v>
+      </c>
+      <c r="G91" s="10">
+        <v>52980000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="B93" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
